--- a/biology/Botanique/Stades_de_croissance_des_céréales/Stades_de_croissance_des_céréales.xlsx
+++ b/biology/Botanique/Stades_de_croissance_des_céréales/Stades_de_croissance_des_céréales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stades_de_croissance_des_c%C3%A9r%C3%A9ales</t>
+          <t>Stades_de_croissance_des_céréales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stades de croissance des céréales sont des étapes de développement des céréales suffisamment caractéristiques pour constituer des séries appelées échelles des stades de croissance, utilisées dans l'appréciation du degré d'avancement d'une culture.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stades_de_croissance_des_c%C3%A9r%C3%A9ales</t>
+          <t>Stades_de_croissance_des_céréales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Échelle BBCH des céréales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En agronomie, l'« échelle BBCH des céréales » décrit le développement phénologique des céréales à l'aide du code BBCH.
 Les stades phénologiques de croissance des céréales et leurs codes d'identification BBCH sont les suivants :
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stades_de_croissance_des_c%C3%A9r%C3%A9ales</t>
+          <t>Stades_de_croissance_des_céréales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Échelle de Feekes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelles de Feekes est un système d'identification de la croissance et du développement des céréales cultivées mises au point par l'agronome Willem Feekes (1907-1979) en 1941[1],[2].
-Cette échelle est plus largement utilisée aux États-Unis[3] que d'autres échelles similaires et plus descriptives[4],[5], telles que l'échelle de Zadoks ou le code BBCH. À l'instar d'autres échelles de développement des plantes cultivées, l'échelle de Feekes est utile pour planifier des stratégies de gestion qui intègrent les informations sur la croissance des plantes pour optimiser l'utilisation de produits phytosanitaires ou d'engrais afin d'éviter de causer des dégâts aux cultures et maximiser leur rendement.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelles de Feekes est un système d'identification de la croissance et du développement des céréales cultivées mises au point par l'agronome Willem Feekes (1907-1979) en 1941,.
+Cette échelle est plus largement utilisée aux États-Unis que d'autres échelles similaires et plus descriptives telles que l'échelle de Zadoks ou le code BBCH. À l'instar d'autres échelles de développement des plantes cultivées, l'échelle de Feekes est utile pour planifier des stratégies de gestion qui intègrent les informations sur la croissance des plantes pour optimiser l'utilisation de produits phytosanitaires ou d'engrais afin d'éviter de causer des dégâts aux cultures et maximiser leur rendement.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stades_de_croissance_des_c%C3%A9r%C3%A9ales</t>
+          <t>Stades_de_croissance_des_céréales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Échelle de Zadoks</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'échelle de Zadoks est une échelle de développement des céréales, mise au point par le phytopathologiste néerlandais Jan C. Zadoks (nl)[6], qui est largement utilisée en agronomie et en recherche sur les céréales. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'échelle de Zadoks est une échelle de développement des céréales, mise au point par le phytopathologiste néerlandais Jan C. Zadoks (nl), qui est largement utilisée en agronomie et en recherche sur les céréales. 
 La connaissance des stades de développement d'une plante cultivée est essentielle pour les producteurs qui doivent prendre de nombreuses décisions de gestion. Ces stades de développement sont représentés sur une échelle allant de 10 à 92. Dans certains pays, par exemple, les applications d'engrais azotés et d'herbicides doivent être achevées pendant le stade du tallage.
 En France, la recommandation pour la première application d'azote sur le blé est de 6 semaines avant le stade Z30, avec la deuxième application au stade Z30. Les régulateurs de croissance du blé sont généralement appliquées au stade Z30. La lutte contre les maladies est le plus critique pendant les stades d'élongation de la tige et de l'épiaison (Z31, Z32, Z35), en particulier dès que la feuille-drapeau est sortie (stade Z37). La culture est également plus sensible à la chaleur ou au gel à certains stades qu'à d'autres (par exemple, lors de la phase de méiose, la culture est très sensible aux basses températures). Il est essentiel de connaître le stade de croissance de la culture pour décider des traitements à faire.
 Exemples de stades caractéristiques :
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stades_de_croissance_des_c%C3%A9r%C3%A9ales</t>
+          <t>Stades_de_croissance_des_céréales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,6 +641,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
